--- a/archive/Pulling/07-12Afternoon shift.xlsx
+++ b/archive/Pulling/07-12Afternoon shift.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\Desktop\Maximiliano Vedoya Ramirez\Dashboards development\Web\archive\Pulling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B16E3-64F6-461C-BED6-4C2918E0789F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -128,13 +134,16 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>Last Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +206,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,46 +537,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -531,14 +589,14 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>107</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>52</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -554,11 +612,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,17 +627,17 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>92</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>40</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -589,11 +650,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -613,22 +677,25 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>84</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>78</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -636,34 +703,37 @@
         <v>13</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>42</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>96</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,14 +741,14 @@
         <v>14</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>61</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>32</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -694,11 +764,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -706,14 +779,14 @@
         <v>15</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>68</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>23</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -729,11 +802,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -741,17 +817,17 @@
         <v>16</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -762,13 +838,16 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -776,14 +855,14 @@
         <v>17</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>39</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -797,13 +876,16 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -811,11 +893,11 @@
         <v>18</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -834,11 +916,14 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -849,14 +934,14 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>23</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -867,13 +952,16 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -881,11 +969,11 @@
         <v>20</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>27</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
@@ -902,13 +990,16 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>28</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -916,14 +1007,14 @@
         <v>21</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>27</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -939,11 +1030,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -951,17 +1045,17 @@
         <v>22</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -974,11 +1068,14 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -986,17 +1083,17 @@
         <v>23</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -1009,11 +1106,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1024,14 +1124,14 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -1044,7 +1144,10 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>37</v>
       </c>
     </row>
